--- a/Upload Data/Listening Exercise/Part 2/Test 2/Test2.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 2/Test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AAAB87-C757-459F-B765-06AC45C907A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -90,64 +90,64 @@
     <t>B</t>
   </si>
   <si>
+    <t>cau3.mp3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>cau4.mp3</t>
+  </si>
+  <si>
+    <t>cau5.mp3</t>
+  </si>
+  <si>
     <t>Transcript:
-Who’s working at the front desk today?
-(A) That’s a difficult request.
-(B) It’s Katie Miller.
-(C) Make room on your desk.
+The elevator has been repaired, right?
+(A) She works on the third floor.
+(B) Yes, it is working again.
+(C) That’s not what I saw.
 Bản dịch:
-Hôm nay ai làm việc ở quầy lễ tân?
-(A) Đó là một yêu cầu khó khăn.
-(B) Đó là Katie Miller.
-(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
-  </si>
-  <si>
-    <t>cau3.mp3</t>
-  </si>
-  <si>
-    <t>A</t>
+Thang máy đã được sửa chữa rồi phải không?
+(A) Cô ấy làm việc ở tầng ba.
+(B) Vâng, nó đang hoạt động trở lại.
+(C) Đó không phải là những gì tôi thấy.</t>
   </si>
   <si>
     <t>Transcript:
-Would you like to work together or separately?
-(A) Actually, I prefer working alone.
-(B) Let’s gather the company’s data.
-(C) Before next Friday.
+What was the cost of replacing the window?
+(A) I think it was less than 60 dollars.
+(B) In a department store.
+(C) It wasn’t difficult at all.
+Bản dịch:
+Chi phí thay thế cửa sổ là bao nhiêu?
+(A) Tôi nghĩ nó chưa đến 60 đô la.
+(B) Trong một cửa hàng bách hóa.
+(C) Nó không khó chút nào.</t>
+  </si>
+  <si>
+    <t>Transcript:
+Will you be checking your e-mail tomorrow?
+(A) Look at the attachment.
+(B) Actually, I’ll be on vacation.
+(C) We accept cash or check.
 Bản dịch: 
-Bạn muốn làm việc cùng nhau hay riêng biệt?
-(A) Thực ra, tôi thích làm việc một mình hơn.
-(B) Hãy thu thập dữ liệu của công ty.
-(C) Trước hôm thứ Sáu tới.</t>
-  </si>
-  <si>
-    <t>cau4.mp3</t>
+Ngày mai bạn có kiểm tra e-mail không?
+(A) Nhìn vào phần đính kèm.
+(B) Thực ra, tôi đang đi nghỉ.
+(C) Chúng tôi chấp nhận tiền mặt hoặc séc.</t>
   </si>
   <si>
     <t>Transcript:
-Have you introduced yourself to the new employee?
-(A) A new reward system will be introduced soon.
-(B) No, I’ve been too busy today.
-(C) Nice to meet you.
-Bản dịch:
-Bạn đã giới thiệu bản thân với nhân viên mới chưa?
-(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
-(B) Không, hôm nay tôi quá bận.
-(C) Rất vui được gặp bạn.</t>
-  </si>
-  <si>
-    <t>cau5.mp3</t>
-  </si>
-  <si>
-    <t>Transcript:
-Where does this bus go to?
-(A) You need a transit card.
-(B) The bus stop is over there.
-(C) It is headed downtown.
-Bản dịch:
-Xe buýt này đi đến đâu?
-(A) Bạn cần thẻ chuyển tuyến.
-(B) Trạm xe buýt ở đằng kia.
-(C) Nó hướng về trung tâm thành phố.</t>
+Have you considered building a fence?
+(A) The house is for sale.
+(B) Yes, we’re doing that next.
+(C) His remarks caused offense.
+Bản dịch: 
+Bạn đã cân nhắc việc xây dựng một hàng rào chưa?
+(A) Ngôi nhà đang được rao bán.
+(B) Vâng, chúng ta sẽ làm điều đó sau. 
+(C) Nhận xét của anh ta gây ra sự xúc phạm.</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399E613-B6A2-4728-A8D9-7D4F2BE7E4C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -637,12 +637,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -654,15 +654,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -677,12 +677,12 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
